--- a/05_Data_Analysis/miniProject_문제정의.xlsx
+++ b/05_Data_Analysis/miniProject_문제정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\WASSUP2\WASSUP2\05_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0AA523-277F-4297-946E-44216D174937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACC7420-E233-41D6-95A1-7BE1A2180447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3FCA7EF-2A83-440A-A538-56124F0D4E8D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="123">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>학습 패턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스 이용시간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,46 +222,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>온라인 학습 플랫폼 사용자의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>행동 패턴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 분석해서, '누가' 서비스 '구독을 연장'할지 예측</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -616,12 +572,132 @@
     <t>가설</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>온라인 학습 플랫폼 사용자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 행동 패턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 분석해서, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'누가'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 서비스 '구독을 연장'할지 예측</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>다음달 구독자(target1)과 다음달 구독 취소자(target0) 의 행동패턴을 분석하여, 그들의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 특징</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 알아보자!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target 1인 유저는 평균적으로 월간학습일수가 13일 이상, 학습성취소 75이상, 커뮤니티참여도 4이상 이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음달 구독 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음달 구독자/구독취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타데이터 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>community_engagement_leve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5 단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~24일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타데이터 분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,15 +752,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="맑은 고딕"/>
@@ -703,7 +770,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -736,7 +802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -901,76 +967,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,16 +1007,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -1040,53 +1040,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,15 +1116,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>644552</xdr:colOff>
+      <xdr:colOff>850292</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>170622</xdr:rowOff>
+      <xdr:rowOff>79182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1253273</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7814</xdr:rowOff>
+      <xdr:colOff>1459013</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1141,7 +1147,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10687712" y="391602"/>
+          <a:off x="11541152" y="300162"/>
           <a:ext cx="3435741" cy="4874012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1453,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B94E6B-8006-482C-8CB7-E5A75341E5CC}">
   <dimension ref="A2:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="G49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1480,14 +1486,14 @@
   <sheetData>
     <row r="2" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -1500,10 +1506,12 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="34.200000000000003" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="V4">
         <v>2</v>
       </c>
@@ -1515,14 +1523,14 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="39"/>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V5">
         <v>3</v>
@@ -1535,10 +1543,16 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="38"/>
+      <c r="B6" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="V6">
         <v>4</v>
       </c>
@@ -1550,19 +1564,19 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>7</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="35"/>
-      <c r="C8" s="29" t="s">
-        <v>109</v>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1575,35 +1589,41 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>110</v>
+      <c r="B9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="22" t="s">
         <v>15</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="36"/>
-      <c r="C11" s="29" t="s">
-        <v>111</v>
+      <c r="B11" s="33"/>
+      <c r="C11" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="35"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="23" t="s">
         <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
       </c>
       <c r="V12">
         <v>6</v>
@@ -1616,11 +1636,17 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>53</v>
+      <c r="B13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>120</v>
       </c>
       <c r="V13">
         <v>7</v>
@@ -1632,92 +1658,112 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:24" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="W15" s="3"/>
-      <c r="X15" s="4"/>
+    <row r="15" spans="2:24" s="34" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="B16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="W16" s="3"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B17" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="W17" s="3"/>
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B23" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="W23" s="3"/>
       <c r="X23" s="4"/>
     </row>
@@ -1730,27 +1776,27 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="2:24" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
       <c r="V26">
         <v>8</v>
       </c>
@@ -1762,27 +1808,27 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="B27" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+      <c r="B27" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
       <c r="V27">
         <v>9</v>
       </c>
@@ -1794,39 +1840,39 @@
       </c>
     </row>
     <row r="28" spans="2:24" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="B28" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="13" t="s">
+      <c r="B28" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13">
+      <c r="F28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12">
         <v>12</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <v>58</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="13" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
       <c r="V28">
         <v>10</v>
       </c>
@@ -1838,37 +1884,37 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="34.200000000000003" x14ac:dyDescent="0.4">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13">
+      <c r="E29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12">
         <v>10</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <v>40</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
       <c r="V29">
         <v>11</v>
       </c>
@@ -1880,37 +1926,37 @@
       </c>
     </row>
     <row r="30" spans="2:24" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12">
+        <v>40</v>
+      </c>
+      <c r="I30" s="12">
+        <v>10</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13">
-        <v>40</v>
-      </c>
-      <c r="I30" s="13">
-        <v>10</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
+      <c r="M30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
       <c r="V30">
         <v>12</v>
       </c>
@@ -1922,37 +1968,37 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="34.200000000000003" x14ac:dyDescent="0.4">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12">
+        <v>90</v>
+      </c>
+      <c r="I31" s="12">
+        <v>9000</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13">
-        <v>90</v>
-      </c>
-      <c r="I31" s="13">
-        <v>9000</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
+      <c r="M31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
       <c r="V31">
         <v>13</v>
       </c>
@@ -1975,8 +2021,8 @@
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,29 +2034,29 @@
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B34" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="P34" s="23" t="s">
+      <c r="B34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="G34" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="P34" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
       <c r="W34" s="5">
         <v>6</v>
       </c>
@@ -2019,24 +2065,24 @@
       </c>
     </row>
     <row r="35" spans="2:24" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="K35" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
+      <c r="B35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="K35" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
       <c r="W35" s="5">
         <v>5</v>
       </c>
@@ -2045,43 +2091,43 @@
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="K36" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="L36" s="25"/>
+      <c r="M36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="22"/>
-      <c r="M36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>76</v>
-      </c>
-      <c r="R36" s="22" t="s">
-        <v>79</v>
+      <c r="R36" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="W36" s="5">
         <v>4</v>
@@ -2092,34 +2138,34 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="I37" s="25"/>
       <c r="M37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q37" t="s">
-        <v>76</v>
-      </c>
-      <c r="R37" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="R37" s="25"/>
       <c r="W37" s="5">
         <v>3</v>
       </c>
@@ -2129,31 +2175,31 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="I38" s="25"/>
       <c r="M38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q38" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="R38" s="25"/>
       <c r="W38" s="5">
         <v>2</v>
       </c>
@@ -2163,31 +2209,31 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I39" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="I39" s="25"/>
       <c r="M39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q39" t="s">
-        <v>76</v>
-      </c>
-      <c r="R39" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="R39" s="25"/>
       <c r="W39" s="5">
         <v>1</v>
       </c>
@@ -2197,31 +2243,31 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="I40" s="25"/>
       <c r="M40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q40" t="s">
-        <v>76</v>
-      </c>
-      <c r="R40" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="R40" s="25"/>
       <c r="W40" s="5">
         <v>0</v>
       </c>
@@ -2231,16 +2277,16 @@
     </row>
     <row r="41" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C41" s="10"/>
-      <c r="G41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="G41" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
       <c r="V41">
         <v>15</v>
       </c>
@@ -2253,403 +2299,382 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.4">
       <c r="C42" s="10"/>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="G43" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="G43" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L43" s="22"/>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.4">
       <c r="G46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.4">
       <c r="G47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.4">
       <c r="G48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="G49" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
+      <c r="G49" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="G50" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
+      <c r="G50" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.4">
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.4">
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.4">
       <c r="G53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.4">
       <c r="G54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.4">
       <c r="G55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B56" s="26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B56" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B59" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="16" t="s">
+      <c r="B59" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="15" t="s">
         <v>36</v>
       </c>
       <c r="N59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B60" s="17"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="8">
         <v>1</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="8">
         <v>0</v>
       </c>
       <c r="L60" t="s">
+        <v>104</v>
+      </c>
+      <c r="N60" t="s">
         <v>106</v>
       </c>
-      <c r="N60" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B61" s="17"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="8">
         <v>1</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="H61" s="16"/>
       <c r="I61" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B62" s="18"/>
-      <c r="C62" s="19">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18">
         <v>1</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19">
+      <c r="H62" s="17"/>
+      <c r="I62" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B64" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="20" t="s">
+      <c r="B64" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="D64" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K64" s="20" t="s">
+      <c r="H64" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L64" s="16" t="s">
+      <c r="K64" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="17"/>
+      <c r="B65" s="16"/>
       <c r="E65" s="8">
         <v>1</v>
       </c>
-      <c r="H65" s="17"/>
+      <c r="H65" s="16"/>
       <c r="L65" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="17"/>
+      <c r="B66" s="16"/>
       <c r="E66" s="8">
         <v>1</v>
       </c>
-      <c r="H66" s="17"/>
+      <c r="H66" s="16"/>
       <c r="L66" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="17"/>
+      <c r="B67" s="16"/>
       <c r="E67" s="8">
         <v>1</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="H67" s="16"/>
       <c r="L67" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="20" t="s">
+      <c r="A68" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="G68" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="G69" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>100</v>
+      </c>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="16"/>
-      <c r="G68" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="20" t="s">
+      <c r="D70" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="K68" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L68" s="16"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="G69" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H69" s="17"/>
-      <c r="I69" t="s">
-        <v>102</v>
-      </c>
-      <c r="K69" t="s">
-        <v>102</v>
-      </c>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="21" t="s">
+      <c r="E70" s="18"/>
+      <c r="G70" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="G70" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K70" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L70" s="19"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L70" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G34:I34"/>
+  <mergeCells count="35">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="G50:N50"/>
@@ -2660,6 +2685,29 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="G49:N49"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
